--- a/biology/Botanique/Bouquettraube/Bouquettraube.xlsx
+++ b/biology/Botanique/Bouquettraube/Bouquettraube.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le bouquettraube est un cépage allemand de raisins blancs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bouquettraube est issu de semis réalisé par Sebastian Englerth à Randersacker près de Wurtzbourg en Franconie. C'est probablement un croisement entre riesling  sylvaner ou entre sylvaner × frankenthal.
 Il est classé recommandé dans le vignoble d'Alsace. En 1998, il couvrait moins de 10 ha.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau rananéeux ou duveteux à plages bronzées.
 Jeunes feuilles aranéeuses, à plages bronzées.
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque tardive : 25 jours après le Chasselas.
 C'est un cépage de bonne vigueur et de bonne productivité. 
@@ -609,7 +627,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont de taille moyenne et les baies sont moyennes. La grappe est cylindrique et compacte. Le cépage est sensible à la pourriture grise.
 Il donne un vin blanc léger et souvent acide avec un goût légèrement aromatique.
@@ -641,7 +661,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bouquettraube est connu sous les noms de Bukettraube, Buket, Bukettriesling, Bukettrebe, Bocksbeutel, bouquet blanc, bouquet traube, Muskat-Silvaner, sylvaner musqué ou Würzburger.
 </t>
